--- a/stimuliBlock1.xlsx
+++ b/stimuliBlock1.xlsx
@@ -361,7 +361,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,7 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="199">
@@ -906,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -976,7 +975,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6">
@@ -1092,7 +1091,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
